--- a/Data/regio_iw_geo_mapping.xlsx
+++ b/Data/regio_iw_geo_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56161612-7D36-4124-8EDC-9A29EDC316A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C7703-12F9-4105-840E-C85B94E5C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,7 @@
         <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>168</v>
@@ -1654,7 +1654,7 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -1790,7 +1790,7 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -2059,7 +2059,7 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -2164,7 +2164,7 @@
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
         <v>52</v>
@@ -2215,7 +2215,7 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
         <v>55</v>
@@ -2266,7 +2266,7 @@
         <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
@@ -2348,7 +2348,7 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
         <v>149</v>
@@ -2402,7 +2402,7 @@
         <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
         <v>64</v>
@@ -2419,7 +2419,7 @@
         <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="D87" t="s">
         <v>105</v>
@@ -2470,7 +2470,7 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
         <v>66</v>
@@ -2521,7 +2521,7 @@
         <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D93" t="s">
         <v>157</v>
@@ -2589,7 +2589,7 @@
         <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D97" t="s">
         <v>71</v>
@@ -2793,7 +2793,7 @@
         <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3048,7 +3048,7 @@
         <v>92</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
@@ -3187,10 +3187,10 @@
         <v>103</v>
       </c>
       <c r="D132" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
         <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D135" t="s">
         <v>101</v>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D141" t="s">
         <v>110</v>
@@ -3541,7 +3541,7 @@
         <v>119</v>
       </c>
       <c r="C153" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D153" t="s">
         <v>119</v>
@@ -3558,7 +3558,7 @@
         <v>172</v>
       </c>
       <c r="C154" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="D154" t="s">
         <v>172</v>
@@ -3711,7 +3711,7 @@
         <v>127</v>
       </c>
       <c r="C163" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D163" t="s">
         <v>127</v>
@@ -3779,7 +3779,7 @@
         <v>129</v>
       </c>
       <c r="C167" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D167" t="s">
         <v>129</v>
